--- a/biology/Botanique/Joseph_Gottlieb_Kölreuter/Joseph_Gottlieb_Kölreuter.xlsx
+++ b/biology/Botanique/Joseph_Gottlieb_Kölreuter/Joseph_Gottlieb_Kölreuter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joseph_Gottlieb_K%C3%B6lreuter</t>
+          <t>Joseph_Gottlieb_Kölreuter</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Gottlieb Kölreuter, né le 27 avril 1733 à Sulz am Neckar et décédé le 11 novembre 1806 à Karlsruhe, est un botaniste et zoologiste allemand. Son nom peut aussi s'orthographier « Koelreuter » ou « Köhlreuter ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joseph_Gottlieb_K%C3%B6lreuter</t>
+          <t>Joseph_Gottlieb_Kölreuter</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de pharmacien, il réunit dès son enfance à Sulz une collection de plantes et d'animaux qu'il utilisera plus tard pour son doctorat.
 En 1748, il entre en médecine à l'université de Tübingen. Il est en particulier l'élève du physicien et botaniste Johann Georg Gmelin. En 1753, il passe une année à l'université de Strasbourg et revient ensuite terminer son doctorat de médecine à Tübingen en 1755.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joseph_Gottlieb_K%C3%B6lreuter</t>
+          <t>Joseph_Gottlieb_Kölreuter</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Joseph Gottlieb Kölreuter - Dissertatio inauguralis medica de insectis coleopteris, nec non de plantis quibusdam rarioribus... - Tubingae : litteris Erhardianis, 1755
 Joseph Gottlieb Kölreuter - Vorläufige Nachricht von einigen, das Geschlecht der Pflanzen betreffenden Versuchen und Beobachtungen - Leipzig : In der Gleditschischen Handlung, 1761
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Joseph_Gottlieb_K%C3%B6lreuter</t>
+          <t>Joseph_Gottlieb_Kölreuter</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Liste partielle des espèces qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le genre de plantes Koelreuteria a été nommé en son honneur ainsi que des espèces de poisson dont :
 Periophthalmus koelreuteri (Pallas) - famille des Gobiidae
